--- a/conf/excel/C_BackPolygon.xlsx
+++ b/conf/excel/C_BackPolygon.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\配置文件相关\Final-newCA-config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-clear\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF2C504-B130-4400-984E-7682ADE5A81A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_BackPolygon.conf" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C_BackPolygon.conf'!$A$1:$C$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C_BackPolygon.conf'!$A$1:$C$77</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="222">
   <si>
     <r>
       <rPr>
@@ -215,60 +216,6 @@
     <t>双线河（其它支流）</t>
   </si>
   <si>
-    <t>kind=013a</t>
-  </si>
-  <si>
-    <t>catalog=0603</t>
-  </si>
-  <si>
-    <t>中国未定国界</t>
-  </si>
-  <si>
-    <t>kind=013b</t>
-  </si>
-  <si>
-    <t>catalog=0605</t>
-  </si>
-  <si>
-    <t>南海范围线（跳线）</t>
-  </si>
-  <si>
-    <t>kind=013e</t>
-  </si>
-  <si>
-    <t>catalog=09010A01</t>
-  </si>
-  <si>
-    <t>国界(海岸线)</t>
-  </si>
-  <si>
-    <t>kind=0231</t>
-  </si>
-  <si>
-    <t>catalog=06FF</t>
-  </si>
-  <si>
-    <t>洲界</t>
-  </si>
-  <si>
-    <t>kind=013c</t>
-  </si>
-  <si>
-    <t>catalog=0604</t>
-  </si>
-  <si>
-    <t>特别行政区界</t>
-  </si>
-  <si>
-    <t>kind=0135</t>
-  </si>
-  <si>
-    <t>catalog=060B</t>
-  </si>
-  <si>
-    <t>地级市界</t>
-  </si>
-  <si>
     <t>kind=0136</t>
   </si>
   <si>
@@ -287,49 +234,6 @@
     <t>区县级行政区</t>
   </si>
   <si>
-    <t>kind=0138</t>
-  </si>
-  <si>
-    <t>岛国国界线</t>
-  </si>
-  <si>
-    <t>kind=0139</t>
-  </si>
-  <si>
-    <t>catalog=060A</t>
-  </si>
-  <si>
-    <t>岛屿归属分界线</t>
-  </si>
-  <si>
-    <t>kind=02ff</t>
-  </si>
-  <si>
-    <t>catalog=0701</t>
-  </si>
-  <si>
-    <t>行政界假想线</t>
-  </si>
-  <si>
-    <t>kind=01310</t>
-  </si>
-  <si>
-    <t>catalog=060101</t>
-  </si>
-  <si>
-    <t>外国已定国界</t>
-  </si>
-  <si>
-    <t>kind=013a0 || kind=01320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catalog=060102</t>
-  </si>
-  <si>
-    <t>外国未定国界</t>
-  </si>
-  <si>
     <t>kind=0123</t>
   </si>
   <si>
@@ -345,33 +249,12 @@
     <t>湖沼</t>
   </si>
   <si>
-    <t>kind=0124</t>
-  </si>
-  <si>
-    <t>湖泊（国界外）</t>
-  </si>
-  <si>
     <t>kind=0125</t>
   </si>
   <si>
     <t>港湾</t>
   </si>
   <si>
-    <t>kind=0126</t>
-  </si>
-  <si>
-    <t>单线河</t>
-  </si>
-  <si>
-    <t>kind=01ff</t>
-  </si>
-  <si>
-    <t>catalog=0702</t>
-  </si>
-  <si>
-    <t>水域假想线</t>
-  </si>
-  <si>
     <t>kind=0143</t>
   </si>
   <si>
@@ -477,179 +360,9 @@
     <t>树林林地</t>
   </si>
   <si>
-    <t>kind=04ff</t>
-  </si>
-  <si>
-    <t>catalog=0703</t>
-  </si>
-  <si>
-    <t>绿地假想线</t>
-  </si>
-  <si>
-    <t>kind=0151</t>
-  </si>
-  <si>
-    <t>catalog=090401</t>
-  </si>
-  <si>
-    <t>City Model(细分)</t>
-  </si>
-  <si>
-    <t>kind=1001 || kind=1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catalog=09040101</t>
-  </si>
-  <si>
-    <t>商业性建筑</t>
-  </si>
-  <si>
-    <t>kind=2001</t>
-  </si>
-  <si>
-    <t>catalog=09040102</t>
-  </si>
-  <si>
     <t>会展中心</t>
   </si>
   <si>
-    <t>kind=3001 || kind=3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catalog=09040103</t>
-  </si>
-  <si>
-    <t>人文性设施</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;4001-4003</t>
-  </si>
-  <si>
-    <t>catalog=09040104</t>
-  </si>
-  <si>
-    <t>教育性设施</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;5001-5005</t>
-  </si>
-  <si>
-    <t>catalog=09040105</t>
-  </si>
-  <si>
-    <t>紧急服务设施</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;6001-6002</t>
-  </si>
-  <si>
-    <t>catalog=09040106</t>
-  </si>
-  <si>
-    <t>政府性设施</t>
-  </si>
-  <si>
-    <t>kind=7001</t>
-  </si>
-  <si>
-    <t>catalog=09040107</t>
-  </si>
-  <si>
-    <t>历史性设施</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;8001-8003</t>
-  </si>
-  <si>
-    <t>catalog=09040108</t>
-  </si>
-  <si>
-    <t>医疗设施</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;9001-9004</t>
-  </si>
-  <si>
-    <t>catalog=09040109</t>
-  </si>
-  <si>
-    <t>公园/休闲性设施</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;1101-1103</t>
-  </si>
-  <si>
-    <t>catalog=09040111</t>
-  </si>
-  <si>
-    <t>居住及相关建筑</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;1201-1204</t>
-  </si>
-  <si>
-    <t>catalog=09040112</t>
-  </si>
-  <si>
-    <t>零售业建筑</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;1301-1302</t>
-  </si>
-  <si>
-    <t>catalog=09040113</t>
-  </si>
-  <si>
-    <t>运动场所及相关建筑</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;1401-1403</t>
-  </si>
-  <si>
-    <t>catalog=09040114</t>
-  </si>
-  <si>
-    <t>景点及相关建筑</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;1501-1505</t>
-  </si>
-  <si>
-    <t>catalog=09040115</t>
-  </si>
-  <si>
-    <t>运输及相关建筑</t>
-  </si>
-  <si>
-    <t>kind=1601</t>
-  </si>
-  <si>
-    <t>catalog=09040116</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>kind=0152</t>
-  </si>
-  <si>
-    <t>catalog=090402</t>
-  </si>
-  <si>
-    <t>3D Landmark</t>
-  </si>
-  <si>
-    <t>kind=05ff</t>
-  </si>
-  <si>
-    <t>catalog=090403</t>
-  </si>
-  <si>
-    <t>建筑物假想线</t>
-  </si>
-  <si>
     <t>kind=0161</t>
   </si>
   <si>
@@ -686,15 +399,6 @@
     <t>工业区</t>
   </si>
   <si>
-    <t>kind=06ff</t>
-  </si>
-  <si>
-    <t>catalog=0705</t>
-  </si>
-  <si>
-    <t>功能面假想线</t>
-  </si>
-  <si>
     <t>kind=0165</t>
   </si>
   <si>
@@ -957,24 +661,6 @@
   </si>
   <si>
     <t>机场绿化带</t>
-  </si>
-  <si>
-    <t>kind=010bj0105</t>
-  </si>
-  <si>
-    <t>catalog=09020air</t>
-  </si>
-  <si>
-    <t>跑道SVG框</t>
-  </si>
-  <si>
-    <t>kind=010bj0108</t>
-  </si>
-  <si>
-    <t>catalog=09020airp</t>
-  </si>
-  <si>
-    <t>小飞机SVG框</t>
   </si>
   <si>
     <t>kind=0141 || kind=014b || kind=tx0160</t>
@@ -1125,7 +811,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1183,7 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1226,17 +912,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1520,11 +1203,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1535,18 +1218,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1582,1217 +1265,821 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>54</v>
+      <c r="A11" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>59</v>
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>68</v>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>71</v>
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>71</v>
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>75</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>85</v>
+      <c r="A34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>88</v>
+      <c r="A35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>91</v>
+      <c r="A36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>94</v>
+      <c r="C37" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="B38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="B39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="B40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="B41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="C42" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="C43" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="C44" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>117</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C66" s="5" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+      <c r="B68" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C69" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C70" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="C71" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C72" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C73" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+      <c r="C74" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+      <c r="C75" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C76" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C77" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+      <c r="C78" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C113">
+  <autoFilter ref="A1:C77" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>

--- a/conf/excel/C_BackPolygon.xlsx
+++ b/conf/excel/C_BackPolygon.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-clear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\配置文件相关\newCA-config-clear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF2C504-B130-4400-984E-7682ADE5A81A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C_BackPolygon.conf" sheetId="1" r:id="rId1"/>
+    <sheet name="C_BackPolygon_Filter.conf" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C_BackPolygon.conf'!$A$1:$C$77</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="227">
   <si>
     <r>
       <rPr>
@@ -807,11 +807,44 @@
     <t>catalog=090101057</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;Empty&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除机场相关的北京面防止背景面压盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name != 北京首都国际机场 &amp;&amp; name != 上海浦东国际机场 &amp;&amp; name != 上海虹桥机场 &amp;&amp; name != 深圳宝安国际机场 &amp;&amp; name != 广州白云国际机场)$"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id != 40061876757 &amp;&amp; id != 40061876760 &amp;&amp; id != 40061876765 &amp;&amp; id != 40061876764 &amp;&amp; id != 40007284849 &amp;&amp; id != 40000293144 &amp;&amp; id != 40005694932 &amp;&amp; id != 40005694930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t># C_BackPolygon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（过滤使用）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -922,6 +955,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1203,11 +1245,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1218,18 +1260,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2079,7 +2121,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C77" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:C77">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
@@ -2091,4 +2133,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/conf/excel/C_BackPolygon.xlsx
+++ b/conf/excel/C_BackPolygon.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\配置文件相关\newCA-config-clear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E14EE3-562A-4493-9039-D449DC7AF2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="5220" yWindow="2280" windowWidth="23580" windowHeight="10035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_BackPolygon.conf" sheetId="1" r:id="rId1"/>
@@ -22,11 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -816,10 +812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name != 北京首都国际机场 &amp;&amp; name != 上海浦东国际机场 &amp;&amp; name != 上海虹桥机场 &amp;&amp; name != 深圳宝安国际机场 &amp;&amp; name != 广州白云国际机场)$"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id != 40061876757 &amp;&amp; id != 40061876760 &amp;&amp; id != 40061876765 &amp;&amp; id != 40061876764 &amp;&amp; id != 40007284849 &amp;&amp; id != 40000293144 &amp;&amp; id != 40005694932 &amp;&amp; id != 40005694930</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,11 +832,15 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>name != 北京首都国际机场 &amp;&amp; name != 上海浦东国际机场 &amp;&amp; name != 上海虹桥机场 &amp;&amp; name != 深圳宝安国际机场 &amp;&amp; name != 广州白云国际机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,13 +953,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,7 +1241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1260,18 +1256,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2121,7 +2117,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C77">
+  <autoFilter ref="A1:C77" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
@@ -2136,11 +2132,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2151,18 +2147,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="A1" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -2176,8 +2172,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>224</v>
+      <c r="A4" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>222</v>
@@ -2187,8 +2183,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>225</v>
+      <c r="A5" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>222</v>
@@ -2198,9 +2194,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/conf/excel/C_BackPolygon.xlsx
+++ b/conf/excel/C_BackPolygon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E14EE3-562A-4493-9039-D449DC7AF2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4EC51B-05EE-42F1-8B1F-2A4541740550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="2280" windowWidth="23580" windowHeight="10035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_BackPolygon.conf" sheetId="1" r:id="rId1"/>
@@ -130,388 +130,249 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t># C_BackPolygon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind=0133</t>
-  </si>
-  <si>
     <t>catalog=0809</t>
   </si>
   <si>
     <t>建成区</t>
   </si>
   <si>
-    <t>kind=0134</t>
-  </si>
-  <si>
     <t>catalog=0808</t>
   </si>
   <si>
     <t>兴趣区</t>
   </si>
   <si>
-    <t>kind=0121</t>
-  </si>
-  <si>
     <t>catalog=09010A04</t>
   </si>
   <si>
-    <t>kind=0123;name=筒子河</t>
-  </si>
-  <si>
     <t>catalog=09010205</t>
   </si>
   <si>
     <t>湖泊</t>
   </si>
   <si>
-    <t>kind=0123;dispclass=5</t>
-  </si>
-  <si>
     <t>catalog=0901010505</t>
   </si>
   <si>
     <t>双线河（1级支流）</t>
   </si>
   <si>
-    <t>kind=0123;dispclass=4</t>
-  </si>
-  <si>
     <t>catalog=0901010504</t>
   </si>
   <si>
     <t>双线河（2级支流）</t>
   </si>
   <si>
-    <t>kind=0123;dispclass=3</t>
-  </si>
-  <si>
     <t>catalog=0901010503</t>
   </si>
   <si>
     <t>双线河（3级支流）</t>
   </si>
   <si>
-    <t>kind=0123;dispclass=2</t>
-  </si>
-  <si>
     <t>catalog=0901010502</t>
   </si>
   <si>
     <t>双线河（4\5级支流）</t>
   </si>
   <si>
-    <t>kind=0123;dispclass=1</t>
-  </si>
-  <si>
     <t>catalog=0901010501</t>
   </si>
   <si>
     <t>双线河（其它支流）</t>
   </si>
   <si>
-    <t>kind=0136</t>
-  </si>
-  <si>
     <t>catalog=0602FF</t>
   </si>
   <si>
     <t>停战线、停火线</t>
   </si>
   <si>
-    <t>kind=0137</t>
-  </si>
-  <si>
     <t>catalog=0805</t>
   </si>
   <si>
     <t>区县级行政区</t>
   </si>
   <si>
-    <t>kind=0123</t>
-  </si>
-  <si>
     <t>catalog=09010105</t>
   </si>
   <si>
     <t>双线河</t>
   </si>
   <si>
-    <t>kind=0122</t>
-  </si>
-  <si>
     <t>湖沼</t>
   </si>
   <si>
-    <t>kind=0125</t>
-  </si>
-  <si>
     <t>港湾</t>
   </si>
   <si>
-    <t>kind=0143</t>
-  </si>
-  <si>
     <t>catalog=09020305</t>
   </si>
   <si>
     <t>岛无属性</t>
   </si>
   <si>
-    <t>kind=0145</t>
-  </si>
-  <si>
     <t>catalog=09020301</t>
   </si>
   <si>
     <t>暗沙</t>
   </si>
   <si>
-    <t>kind=0146</t>
-  </si>
-  <si>
     <t>catalog=09020302</t>
   </si>
   <si>
     <t>浅滩</t>
   </si>
   <si>
-    <t>kind=0147</t>
-  </si>
-  <si>
     <t>catalog=09020304</t>
   </si>
   <si>
     <t>珊瑚礁</t>
   </si>
   <si>
-    <t>kind=0148</t>
-  </si>
-  <si>
     <t>catalog=09020303</t>
   </si>
   <si>
     <t>礁</t>
   </si>
   <si>
-    <t>scene_id&lt;InRange&gt;0001-0002;kind=0141 || kind=014b || kind=tx0160</t>
-  </si>
-  <si>
     <t>catalog=09020a</t>
   </si>
   <si>
     <t>精细化绿地</t>
   </si>
   <si>
-    <t>kind=0141</t>
-  </si>
-  <si>
     <t>catalog=090201</t>
   </si>
   <si>
     <t>绿地，公园</t>
   </si>
   <si>
-    <t>kind=0142</t>
-  </si>
-  <si>
     <t>catalog=09020203</t>
   </si>
   <si>
     <t>高尔夫球场</t>
   </si>
   <si>
-    <t>kind=0144</t>
-  </si>
-  <si>
     <t>catalog=090204</t>
   </si>
   <si>
     <t>绿化带</t>
   </si>
   <si>
-    <t>kind=0149</t>
-  </si>
-  <si>
     <t>catalog=090205</t>
   </si>
   <si>
     <t>机场</t>
   </si>
   <si>
-    <t>kind=014a</t>
-  </si>
-  <si>
     <t>catalog=090206</t>
   </si>
   <si>
     <t>机场跑道</t>
   </si>
   <si>
-    <t>kind=014b</t>
-  </si>
-  <si>
     <t>树林林地</t>
   </si>
   <si>
     <t>会展中心</t>
   </si>
   <si>
-    <t>kind=0161</t>
-  </si>
-  <si>
     <t>catalog=09030201</t>
   </si>
   <si>
     <t>大学</t>
   </si>
   <si>
-    <t>kind=0162</t>
-  </si>
-  <si>
     <t>catalog=090305FF</t>
   </si>
   <si>
     <t>购物中心</t>
   </si>
   <si>
-    <t>kind=0163</t>
-  </si>
-  <si>
     <t>catalog=09030C</t>
   </si>
   <si>
     <t>医院</t>
   </si>
   <si>
-    <t>kind=0164</t>
-  </si>
-  <si>
     <t>catalog=090307FF</t>
   </si>
   <si>
     <t>工业区</t>
   </si>
   <si>
-    <t>kind=0165</t>
-  </si>
-  <si>
     <t>catalog=09030D</t>
   </si>
   <si>
     <t>停车场</t>
   </si>
   <si>
-    <t>kind=0166</t>
-  </si>
-  <si>
     <t>地下停车场</t>
   </si>
   <si>
-    <t>kind=0167</t>
-  </si>
-  <si>
     <t>catalog=090301</t>
   </si>
   <si>
     <t>地铁出入口面</t>
   </si>
   <si>
-    <t>kind=0171</t>
-  </si>
-  <si>
     <t>catalog=090306FF</t>
   </si>
   <si>
     <t>休闲娱乐</t>
   </si>
   <si>
-    <t>kind=0172</t>
-  </si>
-  <si>
     <t>catalog=090304FF</t>
   </si>
   <si>
     <t>景区</t>
   </si>
   <si>
-    <t>kind=0173</t>
-  </si>
-  <si>
     <t>catalog=0903040106</t>
   </si>
   <si>
-    <t>kind=0174</t>
-  </si>
-  <si>
     <t>catalog=0903FF</t>
   </si>
   <si>
     <t>交通枢纽</t>
   </si>
   <si>
-    <t>kind=0175</t>
-  </si>
-  <si>
     <t>catalog=09030401FF</t>
   </si>
   <si>
     <t>文化场馆</t>
   </si>
   <si>
-    <t>kind=0176</t>
-  </si>
-  <si>
     <t>catalog=090308</t>
   </si>
   <si>
     <t>商务区</t>
   </si>
   <si>
-    <t>kind=0177</t>
-  </si>
-  <si>
     <t>商业区</t>
   </si>
   <si>
-    <t>kind=0178</t>
-  </si>
-  <si>
     <t>catalog=090303FF</t>
   </si>
   <si>
     <t>小区</t>
   </si>
   <si>
-    <t>kind=0179</t>
-  </si>
-  <si>
     <t>catalog=09030F</t>
   </si>
   <si>
     <t>广场</t>
   </si>
   <si>
-    <t>kind=017a</t>
-  </si>
-  <si>
     <t>特色区域</t>
   </si>
   <si>
-    <t>kind=84FF</t>
-  </si>
-  <si>
     <t>catalog=09030607</t>
   </si>
   <si>
     <t>体育场范围线</t>
   </si>
   <si>
-    <t>kind=07ff</t>
-  </si>
-  <si>
     <t>catalog=07FF</t>
   </si>
   <si>
@@ -644,87 +505,45 @@
     <t>广州长隆-长隆大马戏</t>
   </si>
   <si>
-    <t>kind=010bj0101</t>
-  </si>
-  <si>
     <t>catalog=09030E0202</t>
   </si>
   <si>
-    <t>kind=010bj0102</t>
-  </si>
-  <si>
     <t>catalog=09020501</t>
   </si>
   <si>
     <t>机场绿化带</t>
   </si>
   <si>
-    <t>kind=0141 || kind=014b || kind=tx0160</t>
-  </si>
-  <si>
-    <t>kind=tx1000</t>
-  </si>
-  <si>
     <t>catalog=09020b</t>
   </si>
   <si>
-    <t>kind=tx2010</t>
-  </si>
-  <si>
     <t>catalog=09020c</t>
   </si>
   <si>
-    <t>kind=tx2000</t>
-  </si>
-  <si>
     <t>catalog=09020d</t>
   </si>
   <si>
-    <t>kind=tx1020</t>
-  </si>
-  <si>
     <t>catalog=09020e</t>
   </si>
   <si>
-    <t>kind=tx1030</t>
-  </si>
-  <si>
     <t>catalog=09020f</t>
   </si>
   <si>
-    <t>kind=tx1040</t>
-  </si>
-  <si>
     <t>catalog=090210</t>
   </si>
   <si>
-    <t>kind=tx1050</t>
-  </si>
-  <si>
     <t>catalog=090211</t>
   </si>
   <si>
-    <t>kind=tx1031</t>
-  </si>
-  <si>
     <t>catalog=090212</t>
   </si>
   <si>
-    <t>kind=tx1051</t>
-  </si>
-  <si>
     <t>catalog=090213</t>
   </si>
   <si>
-    <t>kind=tx1070</t>
-  </si>
-  <si>
     <t>catalog=090214</t>
   </si>
   <si>
-    <t>kind=tx1060</t>
-  </si>
-  <si>
     <t>catalog=090215</t>
   </si>
   <si>
@@ -785,14 +604,6 @@
   </si>
   <si>
     <t>海洋面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind=0123;dispclass=8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind=0123;dispclass=7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -834,6 +645,195 @@
   </si>
   <si>
     <t>name != 北京首都国际机场 &amp;&amp; name != 上海浦东国际机场 &amp;&amp; name != 上海虹桥机场 &amp;&amp; name != 深圳宝安国际机场 &amp;&amp; name != 广州白云国际机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind%=%0136</t>
+  </si>
+  <si>
+    <t>kind%=%0137</t>
+  </si>
+  <si>
+    <t>kind%=%0133</t>
+  </si>
+  <si>
+    <t>kind%=%0134</t>
+  </si>
+  <si>
+    <t>kind%=%0121</t>
+  </si>
+  <si>
+    <t>kind%=%0123;name=筒子河</t>
+  </si>
+  <si>
+    <t>kind%=%0123;dispclass=5</t>
+  </si>
+  <si>
+    <t>kind%=%0123;dispclass=4</t>
+  </si>
+  <si>
+    <t>kind%=%0123;dispclass=3</t>
+  </si>
+  <si>
+    <t>kind%=%0123;dispclass=2</t>
+  </si>
+  <si>
+    <t>kind%=%0123;dispclass=1</t>
+  </si>
+  <si>
+    <t>kind%=%0123</t>
+  </si>
+  <si>
+    <t>kind%=%0122</t>
+  </si>
+  <si>
+    <t>kind%=%0125</t>
+  </si>
+  <si>
+    <t>kind%=%0143</t>
+  </si>
+  <si>
+    <t>kind%=%0145</t>
+  </si>
+  <si>
+    <t>kind%=%0146</t>
+  </si>
+  <si>
+    <t>kind%=%0147</t>
+  </si>
+  <si>
+    <t>kind%=%0148</t>
+  </si>
+  <si>
+    <t>scene_id&lt;InRange&gt;0001-0002;kind%=%0141 || kind%=%014b || kind%=%tx0160</t>
+  </si>
+  <si>
+    <t>kind%=%0141</t>
+  </si>
+  <si>
+    <t>kind%=%0142</t>
+  </si>
+  <si>
+    <t>kind%=%0144</t>
+  </si>
+  <si>
+    <t>kind%=%0149</t>
+  </si>
+  <si>
+    <t>kind%=%014a</t>
+  </si>
+  <si>
+    <t>kind%=%014b</t>
+  </si>
+  <si>
+    <t>kind%=%0161</t>
+  </si>
+  <si>
+    <t>kind%=%0162</t>
+  </si>
+  <si>
+    <t>kind%=%0163</t>
+  </si>
+  <si>
+    <t>kind%=%0164</t>
+  </si>
+  <si>
+    <t>kind%=%0165</t>
+  </si>
+  <si>
+    <t>kind%=%0166</t>
+  </si>
+  <si>
+    <t>kind%=%0167</t>
+  </si>
+  <si>
+    <t>kind%=%0171</t>
+  </si>
+  <si>
+    <t>kind%=%0172</t>
+  </si>
+  <si>
+    <t>kind%=%0173</t>
+  </si>
+  <si>
+    <t>kind%=%0174</t>
+  </si>
+  <si>
+    <t>kind%=%0175</t>
+  </si>
+  <si>
+    <t>kind%=%0176</t>
+  </si>
+  <si>
+    <t>kind%=%0177</t>
+  </si>
+  <si>
+    <t>kind%=%0178</t>
+  </si>
+  <si>
+    <t>kind%=%0179</t>
+  </si>
+  <si>
+    <t>kind%=%017a</t>
+  </si>
+  <si>
+    <t>kind%=%84FF</t>
+  </si>
+  <si>
+    <t>kind%=%07ff</t>
+  </si>
+  <si>
+    <t>kind%=%010bj0101</t>
+  </si>
+  <si>
+    <t>kind%=%010bj0102</t>
+  </si>
+  <si>
+    <t>kind%=%0141 || kind%=%014b || kind%=%tx0160</t>
+  </si>
+  <si>
+    <t>kind%=%tx1000</t>
+  </si>
+  <si>
+    <t>kind%=%tx2010</t>
+  </si>
+  <si>
+    <t>kind%=%tx2000</t>
+  </si>
+  <si>
+    <t>kind%=%tx1020</t>
+  </si>
+  <si>
+    <t>kind%=%tx1030</t>
+  </si>
+  <si>
+    <t>kind%=%tx1040</t>
+  </si>
+  <si>
+    <t>kind%=%tx1050</t>
+  </si>
+  <si>
+    <t>kind%=%tx1031</t>
+  </si>
+  <si>
+    <t>kind%=%tx1051</t>
+  </si>
+  <si>
+    <t>kind%=%tx1070</t>
+  </si>
+  <si>
+    <t>kind%=%tx1060</t>
+  </si>
+  <si>
+    <t>C_BackPolygon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#kind%=%0123;dispclass=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#kind%=%0123;dispclass=7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1257,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1282,838 +1282,838 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2148,7 +2148,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2173,24 +2173,24 @@
     </row>
     <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">

--- a/conf/excel/C_BackPolygon.xlsx
+++ b/conf/excel/C_BackPolygon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4EC51B-05EE-42F1-8B1F-2A4541740550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6B301D-F675-4EC9-92A2-45F43F1E5A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1125" windowWidth="23580" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_BackPolygon.conf" sheetId="1" r:id="rId1"/>
@@ -235,9 +235,6 @@
     <t>礁</t>
   </si>
   <si>
-    <t>catalog=09020a</t>
-  </si>
-  <si>
     <t>精细化绿地</t>
   </si>
   <si>
@@ -512,21 +509,6 @@
   </si>
   <si>
     <t>机场绿化带</t>
-  </si>
-  <si>
-    <t>catalog=09020b</t>
-  </si>
-  <si>
-    <t>catalog=09020c</t>
-  </si>
-  <si>
-    <t>catalog=09020d</t>
-  </si>
-  <si>
-    <t>catalog=09020e</t>
-  </si>
-  <si>
-    <t>catalog=09020f</t>
   </si>
   <si>
     <t>catalog=090210</t>
@@ -648,193 +630,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kind%=%0136</t>
-  </si>
-  <si>
-    <t>kind%=%0137</t>
-  </si>
-  <si>
-    <t>kind%=%0133</t>
-  </si>
-  <si>
-    <t>kind%=%0134</t>
-  </si>
-  <si>
-    <t>kind%=%0121</t>
-  </si>
-  <si>
-    <t>kind%=%0123;name=筒子河</t>
-  </si>
-  <si>
-    <t>kind%=%0123;dispclass=5</t>
-  </si>
-  <si>
-    <t>kind%=%0123;dispclass=4</t>
-  </si>
-  <si>
-    <t>kind%=%0123;dispclass=3</t>
-  </si>
-  <si>
-    <t>kind%=%0123;dispclass=2</t>
-  </si>
-  <si>
-    <t>kind%=%0123;dispclass=1</t>
-  </si>
-  <si>
-    <t>kind%=%0123</t>
-  </si>
-  <si>
-    <t>kind%=%0122</t>
-  </si>
-  <si>
-    <t>kind%=%0125</t>
-  </si>
-  <si>
-    <t>kind%=%0143</t>
-  </si>
-  <si>
-    <t>kind%=%0145</t>
-  </si>
-  <si>
-    <t>kind%=%0146</t>
-  </si>
-  <si>
-    <t>kind%=%0147</t>
-  </si>
-  <si>
-    <t>kind%=%0148</t>
-  </si>
-  <si>
-    <t>scene_id&lt;InRange&gt;0001-0002;kind%=%0141 || kind%=%014b || kind%=%tx0160</t>
-  </si>
-  <si>
-    <t>kind%=%0141</t>
-  </si>
-  <si>
-    <t>kind%=%0142</t>
-  </si>
-  <si>
-    <t>kind%=%0144</t>
-  </si>
-  <si>
-    <t>kind%=%0149</t>
-  </si>
-  <si>
-    <t>kind%=%014a</t>
-  </si>
-  <si>
-    <t>kind%=%014b</t>
-  </si>
-  <si>
-    <t>kind%=%0161</t>
-  </si>
-  <si>
-    <t>kind%=%0162</t>
-  </si>
-  <si>
-    <t>kind%=%0163</t>
-  </si>
-  <si>
-    <t>kind%=%0164</t>
-  </si>
-  <si>
-    <t>kind%=%0165</t>
-  </si>
-  <si>
-    <t>kind%=%0166</t>
-  </si>
-  <si>
-    <t>kind%=%0167</t>
-  </si>
-  <si>
-    <t>kind%=%0171</t>
-  </si>
-  <si>
-    <t>kind%=%0172</t>
-  </si>
-  <si>
-    <t>kind%=%0173</t>
-  </si>
-  <si>
-    <t>kind%=%0174</t>
-  </si>
-  <si>
-    <t>kind%=%0175</t>
-  </si>
-  <si>
-    <t>kind%=%0176</t>
-  </si>
-  <si>
-    <t>kind%=%0177</t>
-  </si>
-  <si>
-    <t>kind%=%0178</t>
-  </si>
-  <si>
-    <t>kind%=%0179</t>
-  </si>
-  <si>
-    <t>kind%=%017a</t>
-  </si>
-  <si>
-    <t>kind%=%84FF</t>
-  </si>
-  <si>
-    <t>kind%=%07ff</t>
-  </si>
-  <si>
-    <t>kind%=%010bj0101</t>
-  </si>
-  <si>
-    <t>kind%=%010bj0102</t>
-  </si>
-  <si>
-    <t>kind%=%0141 || kind%=%014b || kind%=%tx0160</t>
-  </si>
-  <si>
-    <t>kind%=%tx1000</t>
-  </si>
-  <si>
-    <t>kind%=%tx2010</t>
-  </si>
-  <si>
-    <t>kind%=%tx2000</t>
-  </si>
-  <si>
-    <t>kind%=%tx1020</t>
-  </si>
-  <si>
-    <t>kind%=%tx1030</t>
-  </si>
-  <si>
-    <t>kind%=%tx1040</t>
-  </si>
-  <si>
-    <t>kind%=%tx1050</t>
-  </si>
-  <si>
-    <t>kind%=%tx1031</t>
-  </si>
-  <si>
-    <t>kind%=%tx1051</t>
-  </si>
-  <si>
-    <t>kind%=%tx1070</t>
-  </si>
-  <si>
-    <t>kind%=%tx1060</t>
-  </si>
-  <si>
     <t>C_BackPolygon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#kind%=%0123;dispclass=8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#kind%=%0123;dispclass=7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>catalog=09020A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog=09020B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog=09020C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog=09020D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog=09020E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog=09020F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind%=0136</t>
+  </si>
+  <si>
+    <t>kind%=0137</t>
+  </si>
+  <si>
+    <t>kind%=0133</t>
+  </si>
+  <si>
+    <t>kind%=0134</t>
+  </si>
+  <si>
+    <t>kind%=0121</t>
+  </si>
+  <si>
+    <t>kind%=0123;name=筒子河</t>
+  </si>
+  <si>
+    <t>#kind%=0123;dispclass=8</t>
+  </si>
+  <si>
+    <t>#kind%=0123;dispclass=7</t>
+  </si>
+  <si>
+    <t>kind%=0123;dispclass=5</t>
+  </si>
+  <si>
+    <t>kind%=0123;dispclass=4</t>
+  </si>
+  <si>
+    <t>kind%=0123;dispclass=3</t>
+  </si>
+  <si>
+    <t>kind%=0123;dispclass=2</t>
+  </si>
+  <si>
+    <t>kind%=0123;dispclass=1</t>
+  </si>
+  <si>
+    <t>kind%=0123</t>
+  </si>
+  <si>
+    <t>kind%=0122</t>
+  </si>
+  <si>
+    <t>kind%=0125</t>
+  </si>
+  <si>
+    <t>kind%=0143</t>
+  </si>
+  <si>
+    <t>kind%=0145</t>
+  </si>
+  <si>
+    <t>kind%=0146</t>
+  </si>
+  <si>
+    <t>kind%=0147</t>
+  </si>
+  <si>
+    <t>kind%=0148</t>
+  </si>
+  <si>
+    <t>scene_id&lt;InRange&gt;0001-0002;(kind%=0141 || kind%=014b || kind%=tx0160)</t>
+  </si>
+  <si>
+    <t>kind%=0141</t>
+  </si>
+  <si>
+    <t>kind%=0142</t>
+  </si>
+  <si>
+    <t>kind%=0144</t>
+  </si>
+  <si>
+    <t>kind%=0149</t>
+  </si>
+  <si>
+    <t>kind%=014a</t>
+  </si>
+  <si>
+    <t>kind%=014b</t>
+  </si>
+  <si>
+    <t>kind%=0161</t>
+  </si>
+  <si>
+    <t>kind%=0162</t>
+  </si>
+  <si>
+    <t>kind%=0163</t>
+  </si>
+  <si>
+    <t>kind%=0164</t>
+  </si>
+  <si>
+    <t>kind%=0165</t>
+  </si>
+  <si>
+    <t>kind%=0166</t>
+  </si>
+  <si>
+    <t>kind%=0167</t>
+  </si>
+  <si>
+    <t>kind%=0171</t>
+  </si>
+  <si>
+    <t>kind%=0172</t>
+  </si>
+  <si>
+    <t>kind%=0173</t>
+  </si>
+  <si>
+    <t>kind%=0174</t>
+  </si>
+  <si>
+    <t>kind%=0175</t>
+  </si>
+  <si>
+    <t>kind%=0176</t>
+  </si>
+  <si>
+    <t>kind%=0177</t>
+  </si>
+  <si>
+    <t>kind%=0178</t>
+  </si>
+  <si>
+    <t>kind%=0179</t>
+  </si>
+  <si>
+    <t>kind%=017a</t>
+  </si>
+  <si>
+    <t>kind%=84FF || kind%=84ff</t>
+  </si>
+  <si>
+    <t>kind%=07FF || kind%=07ff</t>
+  </si>
+  <si>
+    <t>kind%=010bj0101</t>
+  </si>
+  <si>
+    <t>kind%=010bj0102</t>
+  </si>
+  <si>
+    <t>kind%=0141 || kind%=014b || kind%=tx0160</t>
+  </si>
+  <si>
+    <t>kind%=tx1000</t>
+  </si>
+  <si>
+    <t>kind%=tx2010</t>
+  </si>
+  <si>
+    <t>kind%=tx2000</t>
+  </si>
+  <si>
+    <t>kind%=tx1020</t>
+  </si>
+  <si>
+    <t>kind%=tx1030</t>
+  </si>
+  <si>
+    <t>kind%=tx1040</t>
+  </si>
+  <si>
+    <t>kind%=tx1050</t>
+  </si>
+  <si>
+    <t>kind%=tx1031</t>
+  </si>
+  <si>
+    <t>kind%=tx1051</t>
+  </si>
+  <si>
+    <t>kind%=tx1070</t>
+  </si>
+  <si>
+    <t>kind%=tx1060</t>
   </si>
 </sst>
 </file>
@@ -889,7 +893,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,6 +903,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -958,6 +968,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1244,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1256,18 +1269,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1282,7 +1295,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -1293,7 +1306,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>23</v>
@@ -1304,7 +1317,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1315,7 +1328,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1326,18 +1339,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1348,10 +1361,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>26</v>
@@ -1359,10 +1372,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>26</v>
@@ -1370,7 +1383,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -1381,7 +1394,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -1392,7 +1405,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
@@ -1403,7 +1416,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
@@ -1414,7 +1427,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
@@ -1425,7 +1438,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>25</v>
@@ -1436,7 +1449,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
@@ -1447,7 +1460,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
@@ -1458,7 +1471,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
@@ -1469,7 +1482,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>31</v>
@@ -1480,7 +1493,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>33</v>
@@ -1491,7 +1504,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1502,7 +1515,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
@@ -1512,608 +1525,608 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2147,18 +2160,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -2173,24 +2186,24 @@
     </row>
     <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">

--- a/conf/excel/C_BackPolygon.xlsx
+++ b/conf/excel/C_BackPolygon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6B301D-F675-4EC9-92A2-45F43F1E5A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979F788B-2BDF-4797-B9D1-6925687900E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1125" windowWidth="23580" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="3585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_BackPolygon.conf" sheetId="1" r:id="rId1"/>
@@ -630,10 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C_BackPolygon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>catalog=09020A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,187 +654,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kind%=0136</t>
-  </si>
-  <si>
-    <t>kind%=0137</t>
-  </si>
-  <si>
-    <t>kind%=0133</t>
-  </si>
-  <si>
-    <t>kind%=0134</t>
-  </si>
-  <si>
-    <t>kind%=0121</t>
-  </si>
-  <si>
-    <t>kind%=0123;name=筒子河</t>
-  </si>
-  <si>
-    <t>#kind%=0123;dispclass=8</t>
-  </si>
-  <si>
-    <t>#kind%=0123;dispclass=7</t>
-  </si>
-  <si>
-    <t>kind%=0123;dispclass=5</t>
-  </si>
-  <si>
-    <t>kind%=0123;dispclass=4</t>
-  </si>
-  <si>
-    <t>kind%=0123;dispclass=3</t>
-  </si>
-  <si>
-    <t>kind%=0123;dispclass=2</t>
-  </si>
-  <si>
-    <t>kind%=0123;dispclass=1</t>
-  </si>
-  <si>
-    <t>kind%=0123</t>
-  </si>
-  <si>
-    <t>kind%=0122</t>
-  </si>
-  <si>
-    <t>kind%=0125</t>
-  </si>
-  <si>
-    <t>kind%=0143</t>
-  </si>
-  <si>
-    <t>kind%=0145</t>
-  </si>
-  <si>
-    <t>kind%=0146</t>
-  </si>
-  <si>
-    <t>kind%=0147</t>
-  </si>
-  <si>
-    <t>kind%=0148</t>
-  </si>
-  <si>
-    <t>scene_id&lt;InRange&gt;0001-0002;(kind%=0141 || kind%=014b || kind%=tx0160)</t>
-  </si>
-  <si>
-    <t>kind%=0141</t>
-  </si>
-  <si>
-    <t>kind%=0142</t>
-  </si>
-  <si>
-    <t>kind%=0144</t>
-  </si>
-  <si>
-    <t>kind%=0149</t>
-  </si>
-  <si>
-    <t>kind%=014a</t>
-  </si>
-  <si>
-    <t>kind%=014b</t>
-  </si>
-  <si>
-    <t>kind%=0161</t>
-  </si>
-  <si>
-    <t>kind%=0162</t>
-  </si>
-  <si>
-    <t>kind%=0163</t>
-  </si>
-  <si>
-    <t>kind%=0164</t>
-  </si>
-  <si>
-    <t>kind%=0165</t>
-  </si>
-  <si>
-    <t>kind%=0166</t>
-  </si>
-  <si>
-    <t>kind%=0167</t>
-  </si>
-  <si>
-    <t>kind%=0171</t>
-  </si>
-  <si>
-    <t>kind%=0172</t>
-  </si>
-  <si>
-    <t>kind%=0173</t>
-  </si>
-  <si>
-    <t>kind%=0174</t>
-  </si>
-  <si>
-    <t>kind%=0175</t>
-  </si>
-  <si>
-    <t>kind%=0176</t>
-  </si>
-  <si>
-    <t>kind%=0177</t>
-  </si>
-  <si>
-    <t>kind%=0178</t>
-  </si>
-  <si>
-    <t>kind%=0179</t>
-  </si>
-  <si>
-    <t>kind%=017a</t>
-  </si>
-  <si>
-    <t>kind%=84FF || kind%=84ff</t>
-  </si>
-  <si>
-    <t>kind%=07FF || kind%=07ff</t>
-  </si>
-  <si>
-    <t>kind%=010bj0101</t>
-  </si>
-  <si>
-    <t>kind%=010bj0102</t>
-  </si>
-  <si>
-    <t>kind%=0141 || kind%=014b || kind%=tx0160</t>
-  </si>
-  <si>
-    <t>kind%=tx1000</t>
-  </si>
-  <si>
-    <t>kind%=tx2010</t>
-  </si>
-  <si>
-    <t>kind%=tx2000</t>
-  </si>
-  <si>
-    <t>kind%=tx1020</t>
-  </si>
-  <si>
-    <t>kind%=tx1030</t>
-  </si>
-  <si>
-    <t>kind%=tx1040</t>
-  </si>
-  <si>
-    <t>kind%=tx1050</t>
-  </si>
-  <si>
-    <t>kind%=tx1031</t>
-  </si>
-  <si>
-    <t>kind%=tx1051</t>
-  </si>
-  <si>
-    <t>kind%=tx1070</t>
-  </si>
-  <si>
-    <t>kind%=tx1060</t>
+    <t>kind=0136</t>
+  </si>
+  <si>
+    <t>kind=0137</t>
+  </si>
+  <si>
+    <t>kind=0133</t>
+  </si>
+  <si>
+    <t>kind=0134</t>
+  </si>
+  <si>
+    <t>kind=0121</t>
+  </si>
+  <si>
+    <t>kind=0123;name=筒子河</t>
+  </si>
+  <si>
+    <t>#kind=0123;dispclass=8</t>
+  </si>
+  <si>
+    <t>#kind=0123;dispclass=7</t>
+  </si>
+  <si>
+    <t>kind=0123;dispclass=5</t>
+  </si>
+  <si>
+    <t>kind=0123;dispclass=4</t>
+  </si>
+  <si>
+    <t>kind=0123;dispclass=3</t>
+  </si>
+  <si>
+    <t>kind=0123;dispclass=2</t>
+  </si>
+  <si>
+    <t>kind=0123;dispclass=1</t>
+  </si>
+  <si>
+    <t>kind=0123</t>
+  </si>
+  <si>
+    <t>kind=0122</t>
+  </si>
+  <si>
+    <t>kind=0125</t>
+  </si>
+  <si>
+    <t>kind=0143</t>
+  </si>
+  <si>
+    <t>kind=0145</t>
+  </si>
+  <si>
+    <t>kind=0146</t>
+  </si>
+  <si>
+    <t>kind=0147</t>
+  </si>
+  <si>
+    <t>kind=0148</t>
+  </si>
+  <si>
+    <t>scene_id&lt;InRange&gt;0001-0002;(kind=0141 || kind=014b || kind=tx0160)</t>
+  </si>
+  <si>
+    <t>kind=0141</t>
+  </si>
+  <si>
+    <t>kind=0142</t>
+  </si>
+  <si>
+    <t>kind=0144</t>
+  </si>
+  <si>
+    <t>kind=0149</t>
+  </si>
+  <si>
+    <t>kind=014a</t>
+  </si>
+  <si>
+    <t>kind=014b</t>
+  </si>
+  <si>
+    <t>kind=0161</t>
+  </si>
+  <si>
+    <t>kind=0162</t>
+  </si>
+  <si>
+    <t>kind=0163</t>
+  </si>
+  <si>
+    <t>kind=0164</t>
+  </si>
+  <si>
+    <t>kind=0165</t>
+  </si>
+  <si>
+    <t>kind=0166</t>
+  </si>
+  <si>
+    <t>kind=0167</t>
+  </si>
+  <si>
+    <t>kind=0171</t>
+  </si>
+  <si>
+    <t>kind=0172</t>
+  </si>
+  <si>
+    <t>kind=0173</t>
+  </si>
+  <si>
+    <t>kind=0174</t>
+  </si>
+  <si>
+    <t>kind=0175</t>
+  </si>
+  <si>
+    <t>kind=0176</t>
+  </si>
+  <si>
+    <t>kind=0177</t>
+  </si>
+  <si>
+    <t>kind=0178</t>
+  </si>
+  <si>
+    <t>kind=0179</t>
+  </si>
+  <si>
+    <t>kind=017a</t>
+  </si>
+  <si>
+    <t>kind=84FF || kind=84ff</t>
+  </si>
+  <si>
+    <t>kind=07FF || kind=07ff</t>
+  </si>
+  <si>
+    <t>kind=010bj0101</t>
+  </si>
+  <si>
+    <t>kind=010bj0102</t>
+  </si>
+  <si>
+    <t>kind=0141 || kind=014b || kind=tx0160</t>
+  </si>
+  <si>
+    <t>kind=tx1000</t>
+  </si>
+  <si>
+    <t>kind=tx2010</t>
+  </si>
+  <si>
+    <t>kind=tx2000</t>
+  </si>
+  <si>
+    <t>kind=tx1020</t>
+  </si>
+  <si>
+    <t>kind=tx1030</t>
+  </si>
+  <si>
+    <t>kind=tx1040</t>
+  </si>
+  <si>
+    <t>kind=tx1050</t>
+  </si>
+  <si>
+    <t>kind=tx1031</t>
+  </si>
+  <si>
+    <t>kind=tx1051</t>
+  </si>
+  <si>
+    <t>kind=tx1070</t>
+  </si>
+  <si>
+    <t>kind=tx1060</t>
+  </si>
+  <si>
+    <t># C_BackPolygon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1270,7 +1270,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>23</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>152</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>153</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>25</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>31</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>33</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>39</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>40</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>42</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>44</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>46</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>48</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>48</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>52</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>54</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>56</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>58</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>60</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>60</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>63</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>65</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>67</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>70</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>72</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>74</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>74</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>77</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>79</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>70</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>82</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>84</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>128</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>129</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>25</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>139</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>140</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>141</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>142</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>143</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>144</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>131</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>132</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>133</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>134</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>135</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>136</v>

--- a/conf/excel/C_BackPolygon.xlsx
+++ b/conf/excel/C_BackPolygon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979F788B-2BDF-4797-B9D1-6925687900E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FF2638-CF3C-4C21-823C-33BC7BF1980C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="3585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10725" yWindow="2040" windowWidth="23580" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_BackPolygon.conf" sheetId="1" r:id="rId1"/>
@@ -376,9 +376,6 @@
     <t>假想线</t>
   </si>
   <si>
-    <t>id=SHDSN0001</t>
-  </si>
-  <si>
     <t>catalog=09110101</t>
   </si>
   <si>
@@ -654,190 +651,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kind=0136</t>
-  </si>
-  <si>
-    <t>kind=0137</t>
-  </si>
-  <si>
-    <t>kind=0133</t>
-  </si>
-  <si>
-    <t>kind=0134</t>
-  </si>
-  <si>
-    <t>kind=0121</t>
-  </si>
-  <si>
-    <t>kind=0123;name=筒子河</t>
-  </si>
-  <si>
-    <t>#kind=0123;dispclass=8</t>
-  </si>
-  <si>
-    <t>#kind=0123;dispclass=7</t>
-  </si>
-  <si>
-    <t>kind=0123;dispclass=5</t>
-  </si>
-  <si>
-    <t>kind=0123;dispclass=4</t>
-  </si>
-  <si>
-    <t>kind=0123;dispclass=3</t>
-  </si>
-  <si>
-    <t>kind=0123;dispclass=2</t>
-  </si>
-  <si>
-    <t>kind=0123;dispclass=1</t>
-  </si>
-  <si>
-    <t>kind=0123</t>
-  </si>
-  <si>
-    <t>kind=0122</t>
-  </si>
-  <si>
-    <t>kind=0125</t>
-  </si>
-  <si>
-    <t>kind=0143</t>
-  </si>
-  <si>
-    <t>kind=0145</t>
-  </si>
-  <si>
-    <t>kind=0146</t>
-  </si>
-  <si>
-    <t>kind=0147</t>
-  </si>
-  <si>
-    <t>kind=0148</t>
-  </si>
-  <si>
-    <t>scene_id&lt;InRange&gt;0001-0002;(kind=0141 || kind=014b || kind=tx0160)</t>
-  </si>
-  <si>
-    <t>kind=0141</t>
-  </si>
-  <si>
-    <t>kind=0142</t>
-  </si>
-  <si>
-    <t>kind=0144</t>
-  </si>
-  <si>
-    <t>kind=0149</t>
-  </si>
-  <si>
-    <t>kind=014a</t>
-  </si>
-  <si>
-    <t>kind=014b</t>
-  </si>
-  <si>
-    <t>kind=0161</t>
-  </si>
-  <si>
-    <t>kind=0162</t>
-  </si>
-  <si>
-    <t>kind=0163</t>
-  </si>
-  <si>
-    <t>kind=0164</t>
-  </si>
-  <si>
-    <t>kind=0165</t>
-  </si>
-  <si>
-    <t>kind=0166</t>
-  </si>
-  <si>
-    <t>kind=0167</t>
-  </si>
-  <si>
-    <t>kind=0171</t>
-  </si>
-  <si>
-    <t>kind=0172</t>
-  </si>
-  <si>
-    <t>kind=0173</t>
-  </si>
-  <si>
-    <t>kind=0174</t>
-  </si>
-  <si>
-    <t>kind=0175</t>
-  </si>
-  <si>
-    <t>kind=0176</t>
-  </si>
-  <si>
-    <t>kind=0177</t>
-  </si>
-  <si>
-    <t>kind=0178</t>
-  </si>
-  <si>
-    <t>kind=0179</t>
-  </si>
-  <si>
-    <t>kind=017a</t>
-  </si>
-  <si>
-    <t>kind=84FF || kind=84ff</t>
-  </si>
-  <si>
-    <t>kind=07FF || kind=07ff</t>
-  </si>
-  <si>
-    <t>kind=010bj0101</t>
-  </si>
-  <si>
-    <t>kind=010bj0102</t>
-  </si>
-  <si>
-    <t>kind=0141 || kind=014b || kind=tx0160</t>
-  </si>
-  <si>
-    <t>kind=tx1000</t>
-  </si>
-  <si>
-    <t>kind=tx2010</t>
-  </si>
-  <si>
-    <t>kind=tx2000</t>
-  </si>
-  <si>
-    <t>kind=tx1020</t>
-  </si>
-  <si>
-    <t>kind=tx1030</t>
-  </si>
-  <si>
-    <t>kind=tx1040</t>
-  </si>
-  <si>
-    <t>kind=tx1050</t>
-  </si>
-  <si>
-    <t>kind=tx1031</t>
-  </si>
-  <si>
-    <t>kind=tx1051</t>
-  </si>
-  <si>
-    <t>kind=tx1070</t>
-  </si>
-  <si>
-    <t>kind=tx1060</t>
-  </si>
-  <si>
     <t># C_BackPolygon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0136"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0137"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0133"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0134"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0121"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0123";name=筒子河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#kind="0123";dispclass=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#kind="0123";dispclass=7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0123";dispclass=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0123";dispclass=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0123";dispclass=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0123";dispclass=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0123";dispclass=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0123"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0122"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0125"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0143"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0145"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0146"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0147"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0148"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene_id&lt;InRange&gt;0001-0002;(kind="0141" || kind="014b" || kind="tx0160")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0141"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0142"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0144"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0149"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="014a"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="014b"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0161"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0162"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0163"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0164"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0165"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0166"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0167"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0171"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0172"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0173"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0174"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0175"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0176"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0177"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0178"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0179"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="017a"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="84FF" || kind="84ff"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="07FF" || kind="07ff"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=SHDSN0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="010bj0101"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="010bj0102"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="0141" || kind="014b" || kind="tx0160"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="tx1000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="tx2010"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="tx2000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="tx1020"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="tx1030"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="tx1040"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="tx1050"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="tx1031"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="tx1051"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="tx1070"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind="tx1060"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1257,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1270,7 +1332,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1345,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1364,7 +1426,7 @@
         <v>171</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>26</v>
@@ -1375,7 +1437,7 @@
         <v>172</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>26</v>
@@ -1529,7 +1591,7 @@
         <v>186</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>39</v>
@@ -1812,178 +1874,178 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1994,139 +2056,139 @@
         <v>25</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2161,7 +2223,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2186,24 +2248,24 @@
     </row>
     <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">

--- a/conf/excel/C_BackPolygon.xlsx
+++ b/conf/excel/C_BackPolygon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FF2638-CF3C-4C21-823C-33BC7BF1980C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1A73AD-173F-4D2C-B72E-E297AD7C2FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10725" yWindow="2040" windowWidth="23580" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_BackPolygon.conf" sheetId="1" r:id="rId1"/>
@@ -655,252 +655,200 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kind="0136"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0137"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0133"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0134"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0121"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0123";name=筒子河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#kind="0123";dispclass=8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#kind="0123";dispclass=7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0123";dispclass=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0123";dispclass=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0123";dispclass=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0123";dispclass=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0123";dispclass=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0123"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0122"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0125"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0143"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0145"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0146"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0147"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0148"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scene_id&lt;InRange&gt;0001-0002;(kind="0141" || kind="014b" || kind="tx0160")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0141"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0142"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0144"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0149"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="014a"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="014b"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0161"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0162"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0163"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0164"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0165"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0166"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0167"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0171"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0172"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0173"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0174"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0175"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0176"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0177"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0178"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0179"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="017a"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="84FF" || kind="84ff"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="07FF" || kind="07ff"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id=SHDSN0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kind="010bj0101"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="010bj0102"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="0141" || kind="014b" || kind="tx0160"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="tx1000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="tx2010"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="tx2000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="tx1020"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="tx1030"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="tx1040"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="tx1050"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="tx1031"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="tx1051"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="tx1070"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind="tx1060"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>kind=0136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind=0137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind=0133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind=0134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind=0121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind=0123;name=筒子河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#kind=0123;dispclass=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#kind=0123;dispclass=7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind=0123;dispclass=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind=0123;dispclass=4</t>
+  </si>
+  <si>
+    <t>kind=0123;dispclass=3</t>
+  </si>
+  <si>
+    <t>kind=0123;dispclass=2</t>
+  </si>
+  <si>
+    <t>kind=0123;dispclass=1</t>
+  </si>
+  <si>
+    <t>kind=0123</t>
+  </si>
+  <si>
+    <t>kind=0122</t>
+  </si>
+  <si>
+    <t>kind=0125</t>
+  </si>
+  <si>
+    <t>kind=0143</t>
+  </si>
+  <si>
+    <t>kind=0145</t>
+  </si>
+  <si>
+    <t>kind=0146</t>
+  </si>
+  <si>
+    <t>kind=0147</t>
+  </si>
+  <si>
+    <t>kind=0148</t>
+  </si>
+  <si>
+    <t>scene_id&lt;InRange&gt;0001-0002;(kind=0141 || kind=014b || kind=tx0160)</t>
+  </si>
+  <si>
+    <t>kind=0141</t>
+  </si>
+  <si>
+    <t>kind=0142</t>
+  </si>
+  <si>
+    <t>kind=0144</t>
+  </si>
+  <si>
+    <t>kind=0149</t>
+  </si>
+  <si>
+    <t>kind=014a</t>
+  </si>
+  <si>
+    <t>kind=014b</t>
+  </si>
+  <si>
+    <t>kind=0161</t>
+  </si>
+  <si>
+    <t>kind=0162</t>
+  </si>
+  <si>
+    <t>kind=0163</t>
+  </si>
+  <si>
+    <t>kind=0164</t>
+  </si>
+  <si>
+    <t>kind=0165</t>
+  </si>
+  <si>
+    <t>kind=0166</t>
+  </si>
+  <si>
+    <t>kind=0167</t>
+  </si>
+  <si>
+    <t>kind=0171</t>
+  </si>
+  <si>
+    <t>kind=0172</t>
+  </si>
+  <si>
+    <t>kind=0173</t>
+  </si>
+  <si>
+    <t>kind=0174</t>
+  </si>
+  <si>
+    <t>kind=0175</t>
+  </si>
+  <si>
+    <t>kind=0176</t>
+  </si>
+  <si>
+    <t>kind=0177</t>
+  </si>
+  <si>
+    <t>kind=0178</t>
+  </si>
+  <si>
+    <t>kind=0179</t>
+  </si>
+  <si>
+    <t>kind=017a</t>
+  </si>
+  <si>
+    <t>kind=84FF || kind=84ff</t>
+  </si>
+  <si>
+    <t>kind=07FF || kind=07ff</t>
+  </si>
+  <si>
+    <t>kind=010bj0101</t>
+  </si>
+  <si>
+    <t>kind=010bj0102</t>
+  </si>
+  <si>
+    <t>kind=0141 || kind=014b || kind=tx0160</t>
+  </si>
+  <si>
+    <t>kind=tx1000</t>
+  </si>
+  <si>
+    <t>kind=tx2010</t>
+  </si>
+  <si>
+    <t>kind=tx2000</t>
+  </si>
+  <si>
+    <t>kind=tx1020</t>
+  </si>
+  <si>
+    <t>kind=tx1030</t>
+  </si>
+  <si>
+    <t>kind=tx1040</t>
+  </si>
+  <si>
+    <t>kind=tx1050</t>
+  </si>
+  <si>
+    <t>kind=tx1031</t>
+  </si>
+  <si>
+    <t>kind=tx1051</t>
+  </si>
+  <si>
+    <t>kind=tx1070</t>
+  </si>
+  <si>
+    <t>kind=tx1060</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1357,7 +1305,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -1368,7 +1316,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>23</v>
@@ -1379,7 +1327,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1390,7 +1338,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1401,7 +1349,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -1412,7 +1360,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1423,7 +1371,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>151</v>
@@ -1434,7 +1382,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>152</v>
@@ -1445,7 +1393,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -1456,7 +1404,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -1467,7 +1415,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
@@ -1478,7 +1426,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
@@ -1489,7 +1437,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
@@ -1500,7 +1448,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>25</v>
@@ -1511,7 +1459,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
@@ -1522,7 +1470,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
@@ -1533,7 +1481,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
@@ -1544,7 +1492,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>31</v>
@@ -1555,7 +1503,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>33</v>
@@ -1566,7 +1514,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1577,7 +1525,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
@@ -1588,7 +1536,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>158</v>
@@ -1599,7 +1547,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>40</v>
@@ -1610,7 +1558,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>42</v>
@@ -1621,7 +1569,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>44</v>
@@ -1632,7 +1580,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>46</v>
@@ -1643,7 +1591,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>48</v>
@@ -1654,7 +1602,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>48</v>
@@ -1665,7 +1613,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>52</v>
@@ -1676,7 +1624,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>54</v>
@@ -1687,7 +1635,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>56</v>
@@ -1698,7 +1646,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>58</v>
@@ -1709,7 +1657,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>60</v>
@@ -1720,7 +1668,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>60</v>
@@ -1731,7 +1679,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>63</v>
@@ -1742,7 +1690,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>65</v>
@@ -1753,7 +1701,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>67</v>
@@ -1764,7 +1712,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -1775,7 +1723,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>70</v>
@@ -1786,7 +1734,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>72</v>
@@ -1797,7 +1745,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>74</v>
@@ -1808,7 +1756,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>74</v>
@@ -1819,7 +1767,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>77</v>
@@ -1830,7 +1778,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>79</v>
@@ -1841,7 +1789,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>70</v>
@@ -1852,7 +1800,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>82</v>
@@ -1863,7 +1811,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>84</v>
@@ -1874,7 +1822,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>86</v>
@@ -2050,7 +1998,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>25</v>
